--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Jupyter Notebooks\Lending Club Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA9F0B9-5BA9-4809-A8F3-9BC43211A9F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2204,24 +2205,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="100.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="118.77734375" style="7" customWidth="1"/>
-    <col min="4" max="8" width="8.77734375" style="8"/>
-    <col min="9" max="9" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="8"/>
+    <col min="3" max="7" width="8.77734375" style="8"/>
+    <col min="8" max="8" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>99</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>291</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>295</v>
       </c>
@@ -2245,25 +2245,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>296</v>
       </c>
@@ -2303,16 +2303,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>106</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>344</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>345</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>350</v>
       </c>
@@ -2360,25 +2360,23 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>361</v>
       </c>
@@ -2394,7 +2392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -2402,7 +2400,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>255</v>
       </c>
@@ -2410,7 +2408,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>166</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2450,7 +2448,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>351</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>356</v>
       </c>
@@ -2490,7 +2488,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>353</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>346</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>360</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>355</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>357</v>
       </c>
@@ -2530,7 +2528,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>359</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>348</v>
       </c>
@@ -2546,7 +2544,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>352</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>349</v>
       </c>
@@ -2562,7 +2560,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>347</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>11</v>
       </c>
@@ -2578,25 +2576,23 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>34</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>287</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>289</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
@@ -2644,16 +2640,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>45</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
@@ -2669,7 +2665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>47</v>
       </c>
@@ -2677,7 +2673,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>43</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>2</v>
       </c>
@@ -2701,13 +2697,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>88</v>
       </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -2715,9 +2712,8 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>283</v>
       </c>
@@ -2725,25 +2721,25 @@
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>124</v>
       </c>
@@ -2751,7 +2747,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>125</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>111</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>300</v>
       </c>
@@ -2775,7 +2771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>27</v>
       </c>
@@ -2783,7 +2779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>28</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>273</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>301</v>
       </c>
@@ -2815,7 +2811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>302</v>
       </c>
@@ -2823,7 +2819,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>304</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>305</v>
       </c>
@@ -2839,22 +2835,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>104</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>116</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>123</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>117</v>
       </c>
@@ -2886,7 +2882,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>115</v>
       </c>
@@ -2894,7 +2890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>122</v>
       </c>
@@ -2902,7 +2898,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>127</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>102</v>
       </c>
@@ -2918,7 +2914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>126</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>109</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -2942,7 +2938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>120</v>
       </c>
@@ -2950,17 +2946,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>110</v>
       </c>
@@ -2968,7 +2963,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>266</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>335</v>
       </c>
@@ -2992,7 +2987,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>269</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>271</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>279</v>
       </c>
@@ -3470,7 +3465,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K155">
+  <sortState ref="A2:J155">
     <sortCondition ref="A2:A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA9F0B9-5BA9-4809-A8F3-9BC43211A9F2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACF419-166A-40B9-8F56-F7BD799673C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACF419-166A-40B9-8F56-F7BD799673C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91A4FA-5A12-4D88-A622-65B921E499C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91A4FA-5A12-4D88-A622-65B921E499C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0B4D4-EB63-4983-AF92-792D2A7EBE57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0B4D4-EB63-4983-AF92-792D2A7EBE57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D40D33-E265-4BE8-B2FE-2A5286441652}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3465,8 +3465,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J155">
-    <sortCondition ref="A2:A155"/>
+  <sortState ref="A2:J154">
+    <sortCondition ref="A2:A154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D40D33-E265-4BE8-B2FE-2A5286441652}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5810AC-52AD-438A-BE1A-02AD3B0B4C01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5810AC-52AD-438A-BE1A-02AD3B0B4C01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB255BD2-7171-4AD3-911C-B877177915DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB255BD2-7171-4AD3-911C-B877177915DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E606BB-9743-45EE-A8ED-D03B69D0FAE1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E606BB-9743-45EE-A8ED-D03B69D0FAE1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CF63A-ABF8-42E1-8CC7-39C008FD7282}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CF63A-ABF8-42E1-8CC7-39C008FD7282}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2044A9-8F2C-47FF-BB41-6C64580752FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,7 +2209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2044A9-8F2C-47FF-BB41-6C64580752FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D9C56-2660-4F26-836A-0B5AAED83906}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499D9C56-2660-4F26-836A-0B5AAED83906}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE50A6-EF66-480A-8B75-5935D12E64E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
   <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BE50A6-EF66-480A-8B75-5935D12E64E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DED74-D9B0-4E3E-AC8E-CD6529E52AE0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,7 +2209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LCDataDictionary_2018.xlsx
+++ b/LCDataDictionary_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\Data Science\Projects\lending-club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DED74-D9B0-4E3E-AC8E-CD6529E52AE0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD375B1-3543-4F35-9510-EF8CDE112274}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
